--- a/BalanceSheet/MPWR_bal.xlsx
+++ b/BalanceSheet/MPWR_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-8970000.0</v>
+        <v>157000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4047000.0</v>
+        <v>148000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-20586000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-3994000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8111000.0</v>
+        <v>128000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>135634000.0</v>
@@ -1812,19 +1812,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-9401000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4322000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>8304000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>7185000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-4125000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>30318000.0</v>
@@ -2760,19 +2760,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-5027000.0</v>
+        <v>-19000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-13000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-12000.0</v>
+        <v>-13000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>3412000.0</v>
+        <v>-14000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-559000.0</v>
+        <v>-17000000.0</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
